--- a/Labs/Lab09/Lab9Rubric_CS295N.xlsx
+++ b/Labs/Lab09/Lab9Rubric_CS295N.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab09/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909B75CB-04A7-5540-9CA5-1323C3D0DBE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4C8E83-1F1F-4E28-83B4-A56BCD1C731C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="500" windowWidth="13520" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13764" yWindow="2124" windowWidth="15468" windowHeight="10896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Actual</t>
   </si>
@@ -74,7 +87,10 @@
     <t>Points Possible</t>
   </si>
   <si>
-    <t>Includes time</t>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
   </si>
 </sst>
 </file>
@@ -627,7 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -645,13 +661,27 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1009,16 +1039,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.296875" customWidth="1"/>
+    <col min="4" max="4" width="1.796875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1028,14 +1058,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1050,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1062,12 +1092,12 @@
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="18">
+    <row r="8" spans="1:7" ht="17.399999999999999">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -1076,16 +1106,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -1094,49 +1124,40 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f>SUM(C7:C11)</f>
-        <v>20</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="D12" s="11"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="C14" s="11">
+        <v>8</v>
+      </c>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="11" t="s">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11"/>
       <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="E16" s="11"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
@@ -1145,7 +1166,7 @@
       <c r="B17" s="7"/>
       <c r="C17" s="4">
         <f>SUM(C5:C15)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3"/>
       <c r="G17" s="5"/>
@@ -1214,23 +1235,9 @@
     <row r="34" spans="1:7">
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-    </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6"/>
@@ -1283,22 +1290,6 @@
     <row r="54" spans="1:4" s="4" customFormat="1">
       <c r="C54"/>
       <c r="D54"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6"/>
@@ -1337,323 +1328,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="1.5" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" customWidth="1"/>
+    <col min="3" max="3" width="5.796875" customWidth="1"/>
+    <col min="4" max="4" width="0.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="19">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
       <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="18">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
       <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10">
+        <v>4</v>
+      </c>
       <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>4</v>
       </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
       <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="14">
-        <f>SUM(C7:C11)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="C12" s="13"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12">
-        <v>10</v>
-      </c>
-      <c r="E14" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="11" t="s">
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11">
+        <v>8</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15">
+        <v>4</v>
+      </c>
       <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="4">
+        <f>SUM(B5:B15)</f>
+        <v>40</v>
+      </c>
       <c r="C17" s="4">
         <f>SUM(C5:C15)</f>
-        <v>50</v>
-      </c>
-      <c r="E17" s="4">
-        <f>SUM(E5:E15)</f>
-        <v>48</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="7"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="4"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="4"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="11"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="11"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="11"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="6"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:5">
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="7"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="5"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="4"/>
     </row>
-    <row r="55" spans="1:3" s="4" customFormat="1">
+    <row r="55" spans="1:2" s="4" customFormat="1">
       <c r="B55"/>
-      <c r="C55"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="11"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="11"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="11"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="11"/>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="7"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Labs/Lab09/Lab9Rubric_CS295N.xlsx
+++ b/Labs/Lab09/Lab9Rubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4C8E83-1F1F-4E28-83B4-A56BCD1C731C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAADAB3F-EB1B-F34F-8CC3-568E4ED56CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13764" yWindow="2124" windowWidth="15468" windowHeight="10896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23120" yWindow="1680" windowWidth="15460" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Actual</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Search by date</t>
   </si>
   <si>
-    <t>Excellent work on the seed data and searches!</t>
-  </si>
-  <si>
     <t>Lab 8 Rubric</t>
   </si>
   <si>
@@ -91,6 +88,12 @@
   </si>
   <si>
     <t>Here's the grade breakdown:</t>
+  </si>
+  <si>
+    <t>Good work on the seed data and searches!</t>
+  </si>
+  <si>
+    <t>Lab 8: Seed Data and Linq</t>
   </si>
 </sst>
 </file>
@@ -676,11 +679,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1037,289 +1040,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
-    <col min="3" max="3" width="8.296875" customWidth="1"/>
-    <col min="4" max="4" width="1.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="1.83203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="4"/>
+    <row r="1" spans="1:7" ht="19">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12"/>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="12"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.399999999999999">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>4</v>
       </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13">
+        <f>SUM(C6:C10)</f>
+        <v>16</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13">
-        <f>SUM(C7:C11)</f>
-        <v>16</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="11"/>
+      <c r="C13" s="11">
+        <v>8</v>
+      </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
+      <c r="C14">
         <v>4</v>
       </c>
     </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4">
+        <f>SUM(C4:C14)</f>
+        <v>40</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="G16" s="5"/>
+    </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="4">
-        <f>SUM(C5:C15)</f>
-        <v>40</v>
-      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="G29" s="5"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="G34" s="5"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+    <row r="33" spans="1:7">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="54" spans="1:4" s="4" customFormat="1">
-      <c r="C54"/>
-      <c r="D54"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="53" spans="1:4" s="4" customFormat="1">
+      <c r="C53"/>
+      <c r="D53"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1331,44 +1331,46 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" customWidth="1"/>
-    <col min="3" max="3" width="5.796875" customWidth="1"/>
-    <col min="4" max="4" width="0.8984375" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="0.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1378,12 +1380,12 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -1396,15 +1398,15 @@
     <row r="6" spans="1:6">
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1416,7 +1418,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1463,7 +1465,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="11">
         <v>8</v>
@@ -1476,7 +1478,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1621,8 +1623,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Labs/Lab09/Lab9Rubric_CS295N.xlsx
+++ b/Labs/Lab09/Lab9Rubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab09/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAADAB3F-EB1B-F34F-8CC3-568E4ED56CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D07043-6525-4216-AAF3-B56FACB7BB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23120" yWindow="1680" windowWidth="15460" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31764" yWindow="4224" windowWidth="12636" windowHeight="11844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Published to Azure</t>
   </si>
   <si>
-    <t>Code syle and best practice</t>
-  </si>
-  <si>
     <t>Points Possible</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Lab 8: Seed Data and Linq</t>
+  </si>
+  <si>
+    <t>Code style and best practice</t>
   </si>
 </sst>
 </file>
@@ -1042,20 +1042,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.296875" customWidth="1"/>
+    <col min="4" max="4" width="1.796875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="C2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:7" ht="17.399999999999999">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1330,27 +1330,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="0.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="5.796875" customWidth="1"/>
+    <col min="4" max="4" width="0.796875" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1398,7 +1398,7 @@
     <row r="6" spans="1:6">
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:6" ht="17.399999999999999">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>4</v>
